--- a/Spreadsheet/Spreadsheet Challenge.xlsx
+++ b/Spreadsheet/Spreadsheet Challenge.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/constantinbaumgartner/Desktop/Levi's Engagement/upskill/challenges/Spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/constantinbaumgartner/Desktop/Levi's Engagement/upskill_challenges/Spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFBF3E7-2824-4B45-8EFC-3F3C328AD78F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9DF3D-2554-D34D-A817-E526D9EFE2F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32000" yWindow="-1920" windowWidth="32000" windowHeight="17540" activeTab="5" xr2:uid="{C58B741D-4682-B24C-A0A5-6A81D06D39F6}"/>
+    <workbookView xWindow="-32000" yWindow="-1920" windowWidth="32000" windowHeight="17540" activeTab="6" xr2:uid="{C58B741D-4682-B24C-A0A5-6A81D06D39F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3590" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="76">
   <si>
     <t>Policy</t>
   </si>
@@ -291,39 +291,6 @@
   </si>
   <si>
     <t>UpSkill Spreadsheet Challenge</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prompt:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-You've just been notified by Quality Assurance that there's a miscalculation in the formula used to assess the value of assets in flooding zones. We need an overview of how adjusting the formula will impact the business.
-You job is to use the supplemental rainfall data to adjust the assessed value of the insured assets based on the anual rainfall in each state. In any state where the annual rainfall is less than the average annual rainfall across all states, increase the insured value of all assets in flooding zones based on the percent-difference between the states' annual rainfall and the average annual rainfall across all states. The value of the asset should be adjusted by 5% of the percent-difference between the states' annual rainfall and the average anual rainfall across all states.
-Summarize the adjustments with the following statistics:
-- Total value of the insured assets by state before and after the adjustments
-- Total value of the insured assets in flooding zones before and after the adjustments
-- Average ammount adjusted in each state
-- Average ammount adjusted for each building type
-- Average ammount adjusted for each business type
-- Average ammount adjusted for each region
-- Average ammount adjusted for each location</t>
-    </r>
   </si>
   <si>
     <r>
@@ -763,6 +730,39 @@
   <si>
     <t>Average adjustment ammounts</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prompt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+You've just been notified by Quality Assurance that there's a miscalculation in the formula used to assess the value of assets in flooding zones. We need an overview of how adjusting the formula will impact the business.
+You job is to use the supplemental rainfall data to adjust the assessed value of the insured assets based on the anual rainfall in each state. In any state where the annual rainfall is less than the average annual rainfall across all states, increase the insured value of all assets in flooding zones based on the percent-difference between the states' annual rainfall and the average annual rainfall across all states. The value of the asset should be adjusted by 5% of the percent-difference between the states' annual rainfall and the average anual rainfall across all states.
+Summarize the adjustments with the following statistics:
+- Total value of the insured assets by state before and after the adjustments
+- Total value of the insured assets by flooding zones before and after the adjustments
+- Average ammount adjusted in each state
+- Average ammount adjusted for each construction type
+- Average ammount adjusted for each business type
+- Average ammount adjusted for each region
+- Average ammount adjusted for each location</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -884,7 +884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1037,12 +1037,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1057,6 +1066,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1144,22 +1160,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1964,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3141136B-8665-A440-99B3-BBF4499B5B38}">
   <dimension ref="B2:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1977,639 +1983,639 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="16" customHeight="1">
-      <c r="B2" s="26"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="2:13" ht="16" customHeight="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="2:13" ht="17" thickBot="1"/>
     <row r="5" spans="2:13" ht="16" customHeight="1">
-      <c r="B5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
+      <c r="B5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="15"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="15"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="15"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="15"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="22"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="15"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="15"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="15"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="15"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="15"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="22"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="15"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="15"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="15"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="15"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="2:13">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="15"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="2:13">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="15"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="22"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="22"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="15"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="22"/>
     </row>
     <row r="42" spans="2:13">
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="15"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="22"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="15"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="22"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="15"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="22"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="15"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="22"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="15"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="22"/>
     </row>
     <row r="47" spans="2:13" ht="17" thickBot="1">
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="18"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="25"/>
     </row>
     <row r="48" spans="2:13" ht="25" thickBot="1">
       <c r="B48" s="5"/>
@@ -2626,38 +2632,38 @@
       <c r="M48" s="5"/>
     </row>
     <row r="49" spans="2:13" ht="24">
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="21"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="28"/>
     </row>
     <row r="50" spans="2:13" ht="25" thickBot="1">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="24"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="31"/>
     </row>
     <row r="51" spans="2:13" ht="20" customHeight="1">
       <c r="C51" s="4"/>
@@ -18748,7 +18754,7 @@
   <dimension ref="A2:V22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="R10" sqref="R10:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18759,30 +18765,30 @@
     <row r="2" spans="1:22" ht="20" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
+      <c r="O2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="1:22" ht="20" customHeight="1" thickBot="1">
       <c r="A3" s="7"/>
@@ -18802,292 +18808,292 @@
     </row>
     <row r="4" spans="1:22" ht="17" thickBot="1">
       <c r="A4" s="7"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
       <c r="N4" s="7"/>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" s="43" t="s">
+      <c r="P4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="44" t="s">
-        <v>58</v>
+      <c r="S4" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="7"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
       <c r="N5" s="7"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="7"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
       <c r="N6" s="7"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="7"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
       <c r="N7" s="7"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="7"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" ht="17" thickBot="1">
       <c r="A9" s="7"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:22" ht="17" thickBot="1">
       <c r="A10" s="7"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
       <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:22" ht="17" thickBot="1">
+      <c r="O10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="7"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
       <c r="N11" s="7"/>
-      <c r="O11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="P11" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>58</v>
-      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="7"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="7"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="32"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
       <c r="N13" s="7"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="7"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="7"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
       <c r="N15" s="7"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="7"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
       <c r="N16" s="7"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="7"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="17" thickBot="1">
       <c r="A18" s="7"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="35"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="7"/>
     </row>
     <row r="19" spans="1:14">
@@ -19108,20 +19114,20 @@
     </row>
     <row r="20" spans="1:14" ht="17" thickBot="1">
       <c r="A20" s="8"/>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14">
@@ -19157,10 +19163,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297E4A23-E147-B641-9944-58E65298EC2E}">
-  <dimension ref="B2:AA30"/>
+  <dimension ref="B2:AA29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:P17"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19170,645 +19176,643 @@
   <sheetData>
     <row r="2" spans="2:27" ht="20" customHeight="1" thickBot="1">
       <c r="B2" s="9"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="O2" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="O2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
     </row>
     <row r="3" spans="2:27" ht="20" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:27" ht="17" thickBot="1">
-      <c r="B4" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-      <c r="O4" s="43" t="s">
+      <c r="B4" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="O4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="T4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="45" t="s">
+      <c r="Y4" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="45" t="s">
+      <c r="Z4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="T4" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="V4" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="W4" s="45" t="s">
+    </row>
+    <row r="5" spans="2:27">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+    </row>
+    <row r="9" spans="2:27" ht="17" thickBot="1">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="2:27" ht="17" thickBot="1">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="V10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="X4" s="45" t="s">
+      <c r="Y10" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="Y4" s="45" t="s">
+      <c r="Z10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA10" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Z4" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="41"/>
-    </row>
-    <row r="6" spans="2:27">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-    </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-    </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-      <c r="X8" s="41"/>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="41"/>
-      <c r="AA8" s="41"/>
-    </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-    </row>
-    <row r="10" spans="2:27" ht="17" thickBot="1">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-    </row>
-    <row r="11" spans="2:27" ht="17" thickBot="1">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="V11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" s="45" t="s">
+    </row>
+    <row r="11" spans="2:27">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="10"/>
+    </row>
+    <row r="12" spans="2:27">
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="2:27" ht="17" thickBot="1">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="2:27" ht="17" thickBot="1">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="V14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="45" t="s">
+      <c r="Y14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="Y11" s="45" t="s">
+      <c r="Z14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Z11" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA11" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="41"/>
-    </row>
-    <row r="13" spans="2:27">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="32"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-    </row>
-    <row r="14" spans="2:27">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-    </row>
-    <row r="15" spans="2:27" ht="17" thickBot="1">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-    </row>
-    <row r="16" spans="2:27" ht="17" thickBot="1">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="V16" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="W16" s="45" t="s">
+    </row>
+    <row r="15" spans="2:27">
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="10"/>
+    </row>
+    <row r="16" spans="2:27">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="2:20">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="2:20" ht="17" thickBot="1">
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
+    </row>
+    <row r="19" spans="2:20" ht="17" thickBot="1">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
+      <c r="O19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="45" t="s">
+      <c r="R19" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="Y16" s="45" t="s">
+      <c r="S19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Z16" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA16" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="41"/>
-    </row>
-    <row r="18" spans="2:27">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-    </row>
-    <row r="19" spans="2:27" ht="17" thickBot="1">
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="2:27" ht="17" thickBot="1">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
-      <c r="O20" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="P20" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q20" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="R20" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="S20" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="T20" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27">
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="41"/>
-    </row>
-    <row r="22" spans="2:27">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
-    </row>
-    <row r="23" spans="2:27">
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-    </row>
-    <row r="24" spans="2:27">
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-    </row>
-    <row r="25" spans="2:27" ht="17" thickBot="1">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="35"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-    </row>
-    <row r="26" spans="2:27">
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-    </row>
-    <row r="27" spans="2:27" ht="17" thickBot="1">
-      <c r="B27" s="36" t="s">
+    </row>
+    <row r="20" spans="2:20">
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="2:20">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="2:20">
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="2:20">
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:20" ht="17" thickBot="1">
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="42"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:20" ht="17" thickBot="1">
+      <c r="B27" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-    </row>
-    <row r="28" spans="2:27">
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-    </row>
-    <row r="29" spans="2:27">
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-    </row>
-    <row r="30" spans="2:27">
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:20">
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+    </row>
+    <row r="29" spans="2:20">
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -19837,122 +19841,122 @@
   <sheetData>
     <row r="2" spans="2:13" ht="20" customHeight="1">
       <c r="B2" s="9"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="2:13" ht="20" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:13">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="17" thickBot="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="11" spans="2:13" ht="17" thickBot="1">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19969,8 +19973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D84BCB-6897-C041-9519-FFA756278E1F}">
   <dimension ref="B2:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S33" sqref="S33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19980,460 +19984,460 @@
   <sheetData>
     <row r="2" spans="2:27" ht="20" customHeight="1" thickBot="1">
       <c r="B2" s="9"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="O2" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="O2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
     </row>
     <row r="3" spans="2:27" ht="20" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:27" ht="16" customHeight="1" thickBot="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-      <c r="O4" s="40" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="O4" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" s="47"/>
+      <c r="S4" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+    </row>
+    <row r="5" spans="2:27" ht="18" thickTop="1" thickBot="1">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="2:27" ht="17" thickBot="1">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+      <c r="O6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
+      <c r="O7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="2:27">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
+      <c r="O8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="2:27">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="2:27" ht="17" thickBot="1">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+      <c r="O10" s="47" t="s">
         <v>73</v>
-      </c>
-      <c r="P4" s="40"/>
-      <c r="S4" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-    </row>
-    <row r="5" spans="2:27" ht="17" thickBot="1">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" spans="2:27" ht="17" thickBot="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="O6" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="V6" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="W6" s="44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-      <c r="O7" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-    </row>
-    <row r="8" spans="2:27">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-      <c r="O8" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="V8" s="41"/>
-      <c r="W8" s="41"/>
-    </row>
-    <row r="9" spans="2:27">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-    </row>
-    <row r="10" spans="2:27">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-      <c r="O10" s="47" t="s">
-        <v>74</v>
       </c>
       <c r="P10" s="47"/>
       <c r="Q10" s="47"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-    </row>
-    <row r="11" spans="2:27" ht="17" thickBot="1">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="2:27" ht="18" thickTop="1" thickBot="1">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
     </row>
     <row r="12" spans="2:27" ht="17" thickBot="1">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-      <c r="O12" s="43" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
+      <c r="O12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="45" t="s">
+      <c r="P12" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" s="43" t="s">
+      <c r="S12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="T12" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
+      <c r="T12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
     </row>
     <row r="13" spans="2:27">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="32"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
     </row>
     <row r="14" spans="2:27">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
     </row>
     <row r="15" spans="2:27">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
     </row>
     <row r="16" spans="2:27">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
     </row>
     <row r="17" spans="2:23">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
     </row>
     <row r="18" spans="2:23">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="V18" s="46"/>
-      <c r="W18" s="41"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="10"/>
     </row>
     <row r="19" spans="2:23">
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
     </row>
     <row r="20" spans="2:23">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
     </row>
     <row r="21" spans="2:23">
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
     </row>
     <row r="22" spans="2:23" ht="17" thickBot="1">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="35"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="42"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="24" spans="2:23" ht="17" thickBot="1">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -20452,10 +20456,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BF67C3-20D9-CB44-9459-40810E6DD6C5}">
-  <dimension ref="B2:M25"/>
+  <dimension ref="B2:W26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20463,326 +20467,506 @@
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="20" customHeight="1">
+    <row r="2" spans="2:23" ht="20" customHeight="1" thickBot="1">
       <c r="B2" s="9"/>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="2:13" ht="20" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:13">
-      <c r="B4" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="32"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="32"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="32"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="30"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="32"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="32"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="32"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="32"/>
-    </row>
-    <row r="23" spans="2:13" ht="17" thickBot="1">
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="25" spans="2:13" ht="17" thickBot="1">
-      <c r="B25" s="36" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="O2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+    </row>
+    <row r="3" spans="2:23" ht="20" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:23" ht="17" thickBot="1">
+      <c r="B4" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="O4" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="S4" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
+    </row>
+    <row r="5" spans="2:23" ht="18" thickTop="1" thickBot="1">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="2:23" ht="17" thickBot="1">
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+      <c r="O6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+    </row>
+    <row r="8" spans="2:23">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="2:23">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="2:23">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="2:23">
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="2:23">
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="2:23">
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="2:23">
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="2:23">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="39"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="2:23" ht="17" thickBot="1">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="2:23" ht="17" thickBot="1">
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
+      <c r="O18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="V18" s="15"/>
+      <c r="W18" s="10"/>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="39"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+    </row>
+    <row r="20" spans="2:23" ht="17" thickBot="1">
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="2:23" ht="17" thickBot="1">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="V21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+    </row>
+    <row r="23" spans="2:23" ht="17" thickBot="1">
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="42"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+    </row>
+    <row r="24" spans="2:23" ht="17" thickBot="1">
+      <c r="S24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+    </row>
+    <row r="25" spans="2:23" ht="17" thickBot="1">
+      <c r="B25" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B4:M23"/>
     <mergeCell ref="B25:M25"/>
     <mergeCell ref="C2:M2"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="S4:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -20804,122 +20988,122 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="20" customHeight="1">
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
     </row>
     <row r="3" spans="2:13" ht="20" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:13">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="32"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="32"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="32"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="2:13" ht="17" thickBot="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="35"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="11" spans="2:13" ht="17" thickBot="1">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Spreadsheet/Spreadsheet Challenge.xlsx
+++ b/Spreadsheet/Spreadsheet Challenge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/constantinbaumgartner/Desktop/Levi's Engagement/upskill_challenges/Spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A9DF3D-2554-D34D-A817-E526D9EFE2F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9D3898-AD50-434E-B3CF-94887F6D62C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32000" yWindow="-1920" windowWidth="32000" windowHeight="17540" activeTab="6" xr2:uid="{C58B741D-4682-B24C-A0A5-6A81D06D39F6}"/>
   </bookViews>
